--- a/src/UpperLevelOld/output/BFM_output.xlsx
+++ b/src/UpperLevelOld/output/BFM_output.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>node</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>S_G</t>
+  </si>
+  <si>
+    <t>conductor_3</t>
+  </si>
+  <si>
+    <t>conductor_4</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,188 +455,188 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.15386891577608772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>0.15391720848057858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.30986061924071917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -640,13 +646,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AEC62-CFAE-F14A-A179-B76A3BDF3F94}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -656,379 +662,589 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-0.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D6">
+        <v>-0.0</v>
+      </c>
+      <c r="E6">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>-0.0</v>
+      </c>
+      <c r="E7">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D8">
+        <v>-0.0</v>
+      </c>
+      <c r="E8">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>-0.0</v>
+      </c>
+      <c r="E9">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D10">
+        <v>-0.0</v>
+      </c>
+      <c r="E10">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>-0.0</v>
+      </c>
+      <c r="E12">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D13">
+        <v>-0.0</v>
+      </c>
+      <c r="E13">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>-0.0</v>
+      </c>
+      <c r="E15">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D16">
+        <v>-0.0</v>
+      </c>
+      <c r="E16">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>-0.0</v>
+      </c>
+      <c r="E17">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.0</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>-0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>-0.0</v>
+      </c>
+      <c r="E19">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>-0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>-0.0</v>
+      </c>
+      <c r="E21">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D22">
+        <v>-0.0</v>
+      </c>
+      <c r="E22">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>-0.0</v>
+      </c>
+      <c r="E23">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>-0.0</v>
+      </c>
+      <c r="E24">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>-0.0</v>
+      </c>
+      <c r="E26">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>-0.0</v>
+      </c>
+      <c r="E27">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>0.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>0.99999999999999978</v>
+        <v>1.0</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>0.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>0.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>-0.0</v>
+      </c>
+      <c r="E31">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D32">
+        <v>-0.0</v>
+      </c>
+      <c r="E32">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D33">
+        <v>-0.0</v>
+      </c>
+      <c r="E33">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+      <c r="D34">
+        <v>-0.0</v>
+      </c>
+      <c r="E34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D35">
+        <v>-0.0</v>
+      </c>
+      <c r="E35">
+        <v>-0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1038,13 +1254,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC12D2FF-ACD3-F347-86E7-CDA44C507440}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1054,379 +1270,589 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.12439216432707248</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1.0250955274164167E-3</v>
+        <v>0.001040631002386113</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.03749695397332531</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>8.3326039540747826E-2</v>
+        <v>0.016671510511979758</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>3.7059879923385032E-2</v>
+        <v>0.0010415009866324703</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>4.1099195848510756E-3</v>
+        <v>0.004168307345127748</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1.0276593529086728E-3</v>
+        <v>0.001042115839699759</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>1.0295386613743713E-3</v>
+        <v>0.0010421784741543884</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>4.1193653294366141E-3</v>
+        <v>0.004169220913370227</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>2.5742589599940441E-2</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>4.1191561878670385E-3</v>
+        <v>0.009380494881528405</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>1.0298732264398978E-3</v>
+        <v>0.016672282445768044</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.026043064119723222</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>1.0300311678981809E-3</v>
+        <v>0.001040530566552215</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>1.6490577297842632E-2</v>
+        <v>0.016653311036861507</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>4.1237209687003621E-3</v>
+        <v>0.0041637881848133025</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>1.0306105210010047E-3</v>
+        <v>0.001041129716797114</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>2.5760970058543133E-2</v>
+        <v>0.26657765838599035</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>0.0</v>
+      </c>
+      <c r="E26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>3.7081093066938561E-2</v>
+        <v>0.3008308695053856</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>0.0</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>5.0444200971981663E-2</v>
+        <v>0.33705839976199437</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>0.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>0.12444636046420561</v>
+        <v>0.5023432944308752</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>0.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>9.2480169748030486E-3</v>
+        <v>0.00925087839287446</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>0.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>0.0</v>
+      </c>
+      <c r="E31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D32">
+        <v>0.0</v>
+      </c>
+      <c r="E32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>4.1120769293929993E-3</v>
+        <v>0.0041133499428286655</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D33">
+        <v>0.0</v>
+      </c>
+      <c r="E33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D35">
+        <v>0.0</v>
+      </c>
+      <c r="E35">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1868,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1450,20 +1876,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1473,13 +1899,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05177CE3-AE2C-BC4B-A5FF-B28758C28556}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1489,379 +1915,589 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.31735875819228787</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>2.8803304094235978E-2</v>
+        <v>0.028803354168274863</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.17286766654646227</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0.2596392494221284</v>
+        <v>0.1152643123781874</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0.17299453445609839</v>
+        <v>0.028802671991453723</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>5.7615574289764403E-2</v>
+        <v>0.057615794919768724</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>2.8804504758950567E-2</v>
+        <v>0.028804568129159856</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>-2.8800000000000003E-2</v>
+        <v>-0.028800000000000003</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>-5.7602404632774523E-2</v>
+        <v>-0.0576024341548403</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>-0.14402724123660618</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>5.7612975084509542E-2</v>
+        <v>-0.08641443923097877</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>2.8802100066844083E-2</v>
+        <v>-0.11523920475160838</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.14407320205018903</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>-2.8800000000000003E-2</v>
+        <v>-0.028800000000000003</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>-0.11521992718247272</v>
+        <v>-0.11522012453860214</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>5.7616696338511714E-2</v>
+        <v>0.057616860761736007</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>2.8804479186749683E-2</v>
+        <v>0.02880452490474059</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>-0.14405697752393834</v>
+        <v>-0.4611268489176126</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>0.0</v>
+      </c>
+      <c r="E26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>-0.17295435291823283</v>
+        <v>-0.4909345013676737</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>0.0</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>-0.20189457815866421</v>
+        <v>-0.5208721183448601</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>0.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>-0.31737720229724498</v>
+        <v>-0.6372644672744938</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>0.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>8.6522518924586858E-2</v>
+        <v>0.08652255683891764</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>0.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>0.0</v>
+      </c>
+      <c r="E31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D32">
+        <v>0.0</v>
+      </c>
+      <c r="E32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>5.7634598162479872E-2</v>
+        <v>0.05763460887335091</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D33">
+        <v>0.0</v>
+      </c>
+      <c r="E33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D35">
+        <v>0.0</v>
+      </c>
+      <c r="E35">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +2513,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1885,188 +2521,188 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2076,13 +2712,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2940AD0-829B-944D-87AC-7BD3ACD405FE}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2092,379 +2728,589 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.15386891577608408</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1.3951052876013602E-2</v>
+        <v>0.013951091919566276</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.08374362043650492</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0.12587877958141072</v>
+        <v>0.05584405189760849</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>8.3842541434749049E-2</v>
+        <v>0.013950560015065606</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>2.7909096768847372E-2</v>
+        <v>0.0279092687976948</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1.39519890540626E-2</v>
+        <v>0.013952038464858279</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>-1.3948476619330153E-2</v>
+        <v>-0.013948476619330153</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>-2.7898828170431062E-2</v>
+        <v>-0.027898851189271875</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>-6.9763623537406921E-2</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>2.7907070125709706E-2</v>
+        <v>-0.04185668836415165</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>1.3950114076029736E-2</v>
+        <v>-0.05582447506772408</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.06979945994058222</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>-1.3948476619330153E-2</v>
+        <v>-0.013948476619330153</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>-5.5809444029630312E-2</v>
+        <v>-0.05580959791145422</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>2.7909971648732153E-2</v>
+        <v>0.027910099852227636</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>1.3951969114996479E-2</v>
+        <v>0.013952004762066815</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>-6.9786809410299536E-2</v>
+        <v>-0.22343047539248084</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>0.0</v>
+      </c>
+      <c r="E26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>-8.3811211228016352E-2</v>
+        <v>-0.2381646352198739</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>0.0</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>-9.7869023776363348E-2</v>
+        <v>-0.2530001305291586</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>0.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>-0.15388329694843336</v>
+        <v>-0.30972373110101353</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>0.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>4.194095988097804E-2</v>
+        <v>0.041940989443406074</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>0.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>0.0</v>
+      </c>
+      <c r="E31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D32">
+        <v>0.0</v>
+      </c>
+      <c r="E32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>2.7923929995664783E-2</v>
+        <v>0.027923938347107304</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D33">
+        <v>0.0</v>
+      </c>
+      <c r="E33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D35">
+        <v>0.0</v>
+      </c>
+      <c r="E35">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +3326,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2488,276 +3334,276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.15386891577608408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1.3951052876013602E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.013951091919566276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.08374362043650492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0.12587877958141072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.05584405189760849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>8.3842541434749049E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.013950560015065606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>2.7909096768847372E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0279092687976948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1.39519890540626E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.013952038464858279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>-1.3948476619330153E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.013948476619330153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>-2.7898828170431062E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.027898851189271875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>-6.9763623537406921E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>2.7907070125709706E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.04185668836415165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>1.3950114076029736E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.05582447506772408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.06979945994058222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>-1.3948476619330153E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.013948476619330153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>-5.5809444029630312E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.05580959791145422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>2.7909971648732153E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.027910099852227636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>1.3951969114996479E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.013952004762066815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>-6.9786809410299536E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.22343047539248084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>-8.3811211228016352E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.2381646352198739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>-9.7869023776363348E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.2530001305291586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>-0.15388329694843336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.30972373110101353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>4.194095988097804E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.041940989443406074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>2.7923929995664783E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.027923938347107304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +3619,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2781,188 +3627,188 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.31735875819228787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>0.3174206944300802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.6374400287068148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +3824,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2986,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2994,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3002,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3010,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3018,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3026,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3034,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3042,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3050,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3058,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3066,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3074,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3082,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3090,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3098,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3106,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3114,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3122,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3130,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3138,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3146,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3154,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3162,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3170,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3178,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3186,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3194,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3202,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3210,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3218,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3226,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3234,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3242,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3250,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3273,7 +4119,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3281,276 +4127,276 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.12439216432707248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1.0250955274164167E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.001040631002386113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.03749695397332531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>8.3326039540747826E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.016671510511979758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>3.7059879923385032E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0010415009866324703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>4.1099195848510756E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.004168307345127748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1.0276593529086728E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.001042115839699759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>1.0295386613743713E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0010421784741544149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>4.1193653294366141E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.004169220913370227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>2.5742589599940441E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>4.1191561878670385E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.009380494881528405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>1.0298732264398978E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.016672282445768016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.026043064119723222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>1.0300311678981809E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.001040530566552215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>1.6490577297842632E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.016653311036861507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>4.1237209687003621E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.004163788184813277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>1.0306105210010047E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.001041129716797114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>2.5760970058543133E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.26657765838599035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>3.7081093066938561E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.3008308695053856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>5.0444200971981663E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.33705839976199437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>0.12444636046420561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.5023432944308752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>9.2480169748030486E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.00925087839287446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>4.1120769293929993E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0041133499428286655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +4412,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3574,276 +4420,276 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0.31735875819228787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>2.8803304094235978E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.028803354168274863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.17286766654646227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0.2596392494221284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.1152643123781874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0.17299453445609839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.028802671991453723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>5.7615574289764403E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.057615794919768724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>2.8804504758950567E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.028804568129159856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>-2.8800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.028800000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>-5.7602404632774523E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.0576024341548403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>-0.14402724123660618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>5.7612975084509542E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.08641443923097877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>2.8802100066844083E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.11523920475160838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.14407320205018903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>-2.8800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.028800000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>-0.11521992718247272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.11522012453860214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>5.7616696338511714E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.057616860761736007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>2.8804479186749683E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.02880452490474059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>-0.14405697752393834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.4611268489176126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>-0.17295435291823283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.4909345013676737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>-0.20189457815866421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.5208721183448601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>-0.31737720229724498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.6372644672744938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>8.6522518924586858E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.08652255683891764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>5.7634598162479872E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.05763460887335091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +4705,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3867,188 +4713,188 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0.99608934257426496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.995780890414477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0.99309932462341521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9833966135711008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0.99344429289197689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9837415827981524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0.99612767151869208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9897221194692236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>0.99792914665704657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9948327081542279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>0.99969432116837431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9993858710183439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0.9974260445388019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9971175928137368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0.99918273014927572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9839792157813007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>0.99423524440750899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.982184624792216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>0.99366581125361519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9839631034579465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>0.99442057249792204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9823699527717557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>0.99462783987484982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9849251320181702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0.99487751892445397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9828268988069906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>0.99643836400121288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9823300297779233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0.99429653761759873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9841027936511184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>0.99445836838817747</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9834554075771427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>0.99721392835154932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9831055980603391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>0.99892691184198712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9837233966954437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0.99599046074535025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9829019865956417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>0.9967862985888547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9826779657055607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0.99391469325730952</v>
+        <v>0.9842119852955405</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4072,276 +4918,276 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +5203,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4365,276 +5211,276 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
